--- a/Config/SC1095.xlsx
+++ b/Config/SC1095.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="77">
   <si>
     <t>X</t>
   </si>
@@ -244,6 +244,18 @@
   </si>
   <si>
     <t>–0.00173</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -305,6 +317,989 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$96:$D$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$96:$F$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-612003136"/>
+        <c:axId val="-611999872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-612003136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-611999872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-611999872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-612003136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -570,10 +1565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:R24"/>
+  <dimension ref="C2:Y116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,7 +1993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>3</v>
       </c>
@@ -1023,7 +2018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>4</v>
       </c>
@@ -1048,7 +2043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>5</v>
       </c>
@@ -1073,7 +2068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>6</v>
       </c>
@@ -1098,7 +2093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>7</v>
       </c>
@@ -1123,7 +2118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>8</v>
       </c>
@@ -1148,7 +2143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>9</v>
       </c>
@@ -1173,7 +2168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>10</v>
       </c>
@@ -1198,8 +2193,798 @@
         <v>5</v>
       </c>
     </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>21.966996999999999</v>
+      </c>
+      <c r="H30">
+        <v>42.561056000000001</v>
+      </c>
+      <c r="I30">
+        <v>63.471947</v>
+      </c>
+      <c r="J30">
+        <v>85.122112000000001</v>
+      </c>
+      <c r="K30">
+        <v>87.762376000000003</v>
+      </c>
+      <c r="L30">
+        <v>89.663365999999996</v>
+      </c>
+      <c r="M30">
+        <v>91.669967</v>
+      </c>
+      <c r="N30">
+        <v>105.927393</v>
+      </c>
+      <c r="O30">
+        <v>108.567657</v>
+      </c>
+      <c r="P30">
+        <v>120.71287100000001</v>
+      </c>
+      <c r="Q30">
+        <v>125.887789</v>
+      </c>
+      <c r="R30">
+        <v>126.62706300000001</v>
+      </c>
+      <c r="S30">
+        <v>130.112211</v>
+      </c>
+      <c r="T30">
+        <v>136.76567700000001</v>
+      </c>
+      <c r="U30">
+        <v>136.55445499999999</v>
+      </c>
+      <c r="V30">
+        <v>143.84158400000001</v>
+      </c>
+      <c r="W30">
+        <v>146.48184800000001</v>
+      </c>
+      <c r="X30">
+        <v>151.339934</v>
+      </c>
+      <c r="Y30">
+        <v>154.719472</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31">
+        <v>1414.2857140000001</v>
+      </c>
+      <c r="G31">
+        <v>1168.1632649999999</v>
+      </c>
+      <c r="H31">
+        <v>925.71428600000002</v>
+      </c>
+      <c r="I31">
+        <v>813.67346899999995</v>
+      </c>
+      <c r="J31">
+        <v>732.85714299999995</v>
+      </c>
+      <c r="K31">
+        <v>800.816327</v>
+      </c>
+      <c r="L31">
+        <v>854.08163300000001</v>
+      </c>
+      <c r="M31">
+        <v>786.12244899999996</v>
+      </c>
+      <c r="N31">
+        <v>879.79591800000003</v>
+      </c>
+      <c r="O31">
+        <v>817.34693900000002</v>
+      </c>
+      <c r="P31">
+        <v>912.85714299999995</v>
+      </c>
+      <c r="Q31">
+        <v>1129.5918369999999</v>
+      </c>
+      <c r="R31">
+        <v>1050.612245</v>
+      </c>
+      <c r="S31">
+        <v>1002.857143</v>
+      </c>
+      <c r="T31">
+        <v>1054.2857140000001</v>
+      </c>
+      <c r="U31">
+        <v>1206.734694</v>
+      </c>
+      <c r="V31">
+        <v>1307.7551020000001</v>
+      </c>
+      <c r="W31">
+        <v>1434.4897960000001</v>
+      </c>
+      <c r="X31">
+        <v>1520.816327</v>
+      </c>
+      <c r="Y31">
+        <v>1647.5510200000001</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>21.966996999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>42.561056000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>63.471947</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>85.122112000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>87.762376000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>89.663365999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>91.669967</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>105.927393</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>108.567657</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>120.71287100000001</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>125.887789</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>126.62706300000001</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>130.112211</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>136.76567700000001</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>136.55445499999999</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>143.84158400000001</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>146.48184800000001</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>151.339934</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>154.719472</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>1414.2857140000001</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>1168.1632649999999</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>925.71428600000002</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>813.67346899999995</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>732.85714299999995</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>800.816327</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>854.08163300000001</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>786.12244899999996</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>879.79591800000003</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>817.34693900000002</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>912.85714299999995</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>1129.5918369999999</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>1050.612245</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>1002.857143</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>1054.2857140000001</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>1206.734694</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>1307.7551020000001</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>1434.4897960000001</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>1520.816327</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>1647.5510200000001</v>
+      </c>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <f>SIN(H85)</f>
+        <v>0.8414709848078965</v>
+      </c>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H86">
+        <f>PI()</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="I86">
+        <f t="shared" ref="I86:I88" si="6">SIN(H86)</f>
+        <v>1.22514845490862E-16</v>
+      </c>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H87">
+        <v>3</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="6"/>
+        <v>0.14112000805986721</v>
+      </c>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H88">
+        <v>4</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="6"/>
+        <v>-0.7568024953079282</v>
+      </c>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>10</v>
+      </c>
+      <c r="E95" t="s">
+        <v>75</v>
+      </c>
+      <c r="F95" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <f>$D$95*C96</f>
+        <v>0</v>
+      </c>
+      <c r="E96" t="e">
+        <f>EXP(-3/2*($D$116-D96)/(D96*SIN(15*PI()/180)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F96" t="e">
+        <f>2/PI()*ACOS(E96)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>0.05</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ref="D97:D116" si="7">$D$95*C97</f>
+        <v>0.5</v>
+      </c>
+      <c r="E97">
+        <f t="shared" ref="E97:E116" si="8">EXP(-3/2*($D$116-D97)/(D97*SIN(10)))</f>
+        <v>5.6451729760900685E+22</v>
+      </c>
+      <c r="F97" t="e">
+        <f t="shared" ref="F97:F116" si="9">2/PI()*ACOS(E97)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>0.1</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="8"/>
+        <v>59856356590.685356</v>
+      </c>
+      <c r="F98" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>0.15</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="8"/>
+        <v>6103626.5419434207</v>
+      </c>
+      <c r="F99" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>0.2</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="8"/>
+        <v>61634.91342460439</v>
+      </c>
+      <c r="F100" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>0.25</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="8"/>
+        <v>3911.7410061981759</v>
+      </c>
+      <c r="F101" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>0.3</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="8"/>
+        <v>622.39433011720678</v>
+      </c>
+      <c r="F102" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>0.35</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="7"/>
+        <v>3.5</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="8"/>
+        <v>167.43573488831407</v>
+      </c>
+      <c r="F103" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J103">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>0.4</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="8"/>
+        <v>62.543912623037713</v>
+      </c>
+      <c r="F104" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J104">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>0.45</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="7"/>
+        <v>4.5</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="8"/>
+        <v>29.077575089832877</v>
+      </c>
+      <c r="F105" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J105">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>0.5</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="8"/>
+        <v>15.756389118539188</v>
+      </c>
+      <c r="F106" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J106">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="7"/>
+        <v>5.5</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="8"/>
+        <v>9.544150917219131</v>
+      </c>
+      <c r="F107" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J107">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>0.6</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="8"/>
+        <v>6.2849881769673752</v>
+      </c>
+      <c r="F108" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J108">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>0.65</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="7"/>
+        <v>6.5</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="8"/>
+        <v>4.4135126491517456</v>
+      </c>
+      <c r="F109" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J109">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <v>0.7</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="8"/>
+        <v>3.2598358195217152</v>
+      </c>
+      <c r="F110" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J110">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <v>0.75</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="7"/>
+        <v>7.5</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="8"/>
+        <v>2.5069878693299206</v>
+      </c>
+      <c r="F111" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J111">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>0.8</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="8"/>
+        <v>1.9923433033122897</v>
+      </c>
+      <c r="F112" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="113" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>0.85</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="7"/>
+        <v>8.5</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="8"/>
+        <v>1.626731542647377</v>
+      </c>
+      <c r="F113" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="114" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>0.9</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="8"/>
+        <v>1.3584721649788276</v>
+      </c>
+      <c r="F114" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="115" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <v>0.95</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="7"/>
+        <v>9.5</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="8"/>
+        <v>1.1561762308215979</v>
+      </c>
+      <c r="F115" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="116" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1207,8 +2992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C144"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
